--- a/doc/EFG_laser计算111.xlsx
+++ b/doc/EFG_laser计算111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NPC\PCITest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT\PCITest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7097,8 +7097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7171,6 +7171,20 @@
         <v>1.0999388129716501</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <f>B2*$B$25+C2*$C$25+D2*$D$25</f>
+        <v>0.99003476219963471</v>
+      </c>
+      <c r="C3">
+        <f>ACOS(B3)</f>
+        <v>0.1412928371742519</v>
+      </c>
+      <c r="D3">
+        <f>DEGREES(C3)</f>
+        <v>8.095483245513778</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>116</v>
@@ -7224,6 +7238,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <f>B5*$B$25+C5*$C$25+D5*$D$25</f>
+        <v>0.95271001045902104</v>
+      </c>
+      <c r="C6">
+        <f>ACOS(B6)</f>
+        <v>0.30876361948060382</v>
+      </c>
+      <c r="D6">
+        <f>DEGREES(C6)</f>
+        <v>17.690852263421927</v>
+      </c>
       <c r="J6">
         <v>0.70482115316014204</v>
       </c>

--- a/doc/EFG_laser计算111.xlsx
+++ b/doc/EFG_laser计算111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT\PCITest\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NPC\PCITest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="213">
   <si>
     <t>标准值</t>
   </si>
@@ -747,6 +747,14 @@
   </si>
   <si>
     <t>两面角度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与测量面的角度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与测量面的角度</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7098,7 +7106,7 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7172,6 +7180,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>211</v>
+      </c>
       <c r="B3">
         <f>B2*$B$25+C2*$C$25+D2*$D$25</f>
         <v>0.99003476219963471</v>
@@ -7238,6 +7249,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="B6">
         <f>B5*$B$25+C5*$C$25+D5*$D$25</f>
         <v>0.95271001045902104</v>
@@ -7932,6 +7946,10 @@
       <c r="D47" s="20">
         <f>DEGREES(C47)</f>
         <v>163.28838537406796</v>
+      </c>
+      <c r="E47">
+        <f>180-D47</f>
+        <v>16.711614625932043</v>
       </c>
       <c r="H47" t="s">
         <v>108</v>
